--- a/nilai_raport_IPA.xlsx
+++ b/nilai_raport_IPA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamyo\Code Box\srjk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E0D148-CBFB-499E-97F0-7C0478557B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7E39B1-1E84-41FC-9835-F7DE921ECAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="80">
   <si>
     <t>NO.</t>
   </si>
@@ -219,6 +219,48 @@
   <si>
     <t>D3 AKUNTANSI</t>
   </si>
+  <si>
+    <t>Riska Adelia</t>
+  </si>
+  <si>
+    <t>POLITEKNIK NEGERI SRIWIJAYA</t>
+  </si>
+  <si>
+    <t>D3 TEKNOLOGI PANGAN</t>
+  </si>
+  <si>
+    <t>Nadia Damayanti</t>
+  </si>
+  <si>
+    <t>PERBANKAN SYARIAH</t>
+  </si>
+  <si>
+    <t>Putu Sudiyani</t>
+  </si>
+  <si>
+    <t>UNIVERSITAS UDAYANA</t>
+  </si>
+  <si>
+    <t>AGROEKOTEKNOLOGI</t>
+  </si>
+  <si>
+    <t>Olga Ramayani</t>
+  </si>
+  <si>
+    <t>Tasya Salsa Bila</t>
+  </si>
+  <si>
+    <t>Cut Mei Putri Ayu Wulandari</t>
+  </si>
+  <si>
+    <t>ILMU POLITIK</t>
+  </si>
+  <si>
+    <t>IAIN METRO</t>
+  </si>
+  <si>
+    <t>D3 TEKNIK KOMPUTER</t>
+  </si>
 </sst>
 </file>
 
@@ -291,7 +333,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -340,12 +382,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -378,6 +431,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -603,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BW38"/>
+  <dimension ref="A1:BW44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BT43" sqref="C43:BT43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" customHeight="1"/>
@@ -627,99 +684,99 @@
     <row r="1" spans="1:75" ht="12" customHeight="1"/>
     <row r="2" spans="1:75" ht="12.5"/>
     <row r="3" spans="1:75" ht="12.5">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12" t="s">
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="12"/>
-      <c r="AQ3" s="12"/>
-      <c r="AR3" s="12"/>
-      <c r="AS3" s="12" t="s">
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="12"/>
-      <c r="AV3" s="12"/>
-      <c r="AW3" s="12"/>
-      <c r="AX3" s="12"/>
-      <c r="AY3" s="12"/>
-      <c r="AZ3" s="12"/>
-      <c r="BA3" s="12"/>
-      <c r="BB3" s="12"/>
-      <c r="BC3" s="12"/>
-      <c r="BD3" s="12"/>
-      <c r="BE3" s="12"/>
-      <c r="BF3" s="12"/>
-      <c r="BG3" s="12" t="s">
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="BH3" s="12"/>
-      <c r="BI3" s="12"/>
-      <c r="BJ3" s="12"/>
-      <c r="BK3" s="12"/>
-      <c r="BL3" s="12"/>
-      <c r="BM3" s="12"/>
-      <c r="BN3" s="12"/>
-      <c r="BO3" s="12"/>
-      <c r="BP3" s="12"/>
-      <c r="BQ3" s="12"/>
-      <c r="BR3" s="12"/>
-      <c r="BS3" s="12"/>
-      <c r="BT3" s="12"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14"/>
+      <c r="BJ3" s="14"/>
+      <c r="BK3" s="14"/>
+      <c r="BL3" s="14"/>
+      <c r="BM3" s="14"/>
+      <c r="BN3" s="14"/>
+      <c r="BO3" s="14"/>
+      <c r="BP3" s="14"/>
+      <c r="BQ3" s="14"/>
+      <c r="BR3" s="14"/>
+      <c r="BS3" s="14"/>
+      <c r="BT3" s="14"/>
       <c r="BU3" s="9"/>
       <c r="BV3" s="10"/>
       <c r="BW3" s="10"/>
     </row>
-    <row r="4" spans="1:75" ht="74">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+    <row r="4" spans="1:75" ht="73.5">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
@@ -8542,6 +8599,1353 @@
       </c>
       <c r="BW38" s="10" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:75" ht="12.5">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="4">
+        <v>82</v>
+      </c>
+      <c r="D39" s="4">
+        <v>82</v>
+      </c>
+      <c r="E39" s="4">
+        <v>82</v>
+      </c>
+      <c r="F39" s="4">
+        <v>73</v>
+      </c>
+      <c r="G39" s="4">
+        <v>77</v>
+      </c>
+      <c r="H39" s="4">
+        <v>76</v>
+      </c>
+      <c r="I39" s="4">
+        <v>75</v>
+      </c>
+      <c r="J39" s="4">
+        <v>75</v>
+      </c>
+      <c r="K39" s="4">
+        <v>76</v>
+      </c>
+      <c r="L39" s="4">
+        <v>73</v>
+      </c>
+      <c r="M39" s="4">
+        <v>77</v>
+      </c>
+      <c r="N39" s="4">
+        <v>75</v>
+      </c>
+      <c r="O39" s="4">
+        <v>75</v>
+      </c>
+      <c r="P39" s="4">
+        <v>76</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>85</v>
+      </c>
+      <c r="R39" s="4">
+        <v>82</v>
+      </c>
+      <c r="S39" s="4">
+        <v>82</v>
+      </c>
+      <c r="T39" s="4">
+        <v>74</v>
+      </c>
+      <c r="U39" s="4">
+        <v>82</v>
+      </c>
+      <c r="V39" s="4">
+        <v>76</v>
+      </c>
+      <c r="W39" s="4">
+        <v>78</v>
+      </c>
+      <c r="X39" s="4">
+        <v>77</v>
+      </c>
+      <c r="Y39" s="4">
+        <v>78</v>
+      </c>
+      <c r="Z39" s="4">
+        <v>74</v>
+      </c>
+      <c r="AA39" s="4">
+        <v>78</v>
+      </c>
+      <c r="AB39" s="4">
+        <v>76</v>
+      </c>
+      <c r="AC39" s="4">
+        <v>78</v>
+      </c>
+      <c r="AD39" s="4">
+        <v>77</v>
+      </c>
+      <c r="AE39" s="4">
+        <v>85</v>
+      </c>
+      <c r="AF39" s="4">
+        <v>83</v>
+      </c>
+      <c r="AG39" s="4">
+        <v>85</v>
+      </c>
+      <c r="AH39" s="4">
+        <v>78</v>
+      </c>
+      <c r="AI39" s="4">
+        <v>84</v>
+      </c>
+      <c r="AJ39" s="4">
+        <v>80</v>
+      </c>
+      <c r="AK39" s="4">
+        <v>82</v>
+      </c>
+      <c r="AL39" s="4">
+        <v>83</v>
+      </c>
+      <c r="AM39" s="4">
+        <v>81</v>
+      </c>
+      <c r="AN39" s="4">
+        <v>79</v>
+      </c>
+      <c r="AO39" s="4">
+        <v>81</v>
+      </c>
+      <c r="AP39" s="4">
+        <v>78</v>
+      </c>
+      <c r="AQ39" s="4">
+        <v>78</v>
+      </c>
+      <c r="AR39" s="4">
+        <v>80</v>
+      </c>
+      <c r="AS39" s="4">
+        <v>88</v>
+      </c>
+      <c r="AT39" s="4">
+        <v>86</v>
+      </c>
+      <c r="AU39" s="4">
+        <v>88</v>
+      </c>
+      <c r="AV39" s="4">
+        <v>80</v>
+      </c>
+      <c r="AW39" s="4">
+        <v>85</v>
+      </c>
+      <c r="AX39" s="4">
+        <v>83</v>
+      </c>
+      <c r="AY39" s="4">
+        <v>85</v>
+      </c>
+      <c r="AZ39" s="4">
+        <v>87</v>
+      </c>
+      <c r="BA39" s="4">
+        <v>83</v>
+      </c>
+      <c r="BB39" s="4">
+        <v>82</v>
+      </c>
+      <c r="BC39" s="4">
+        <v>82</v>
+      </c>
+      <c r="BD39" s="4">
+        <v>81</v>
+      </c>
+      <c r="BE39" s="4">
+        <v>81</v>
+      </c>
+      <c r="BF39" s="4">
+        <v>82</v>
+      </c>
+      <c r="BG39" s="4">
+        <v>90</v>
+      </c>
+      <c r="BH39" s="4">
+        <v>85</v>
+      </c>
+      <c r="BI39" s="4">
+        <v>89</v>
+      </c>
+      <c r="BJ39" s="4">
+        <v>85</v>
+      </c>
+      <c r="BK39" s="4">
+        <v>86</v>
+      </c>
+      <c r="BL39" s="4">
+        <v>92</v>
+      </c>
+      <c r="BM39" s="4">
+        <v>86</v>
+      </c>
+      <c r="BN39" s="4">
+        <v>89</v>
+      </c>
+      <c r="BO39" s="4">
+        <v>85</v>
+      </c>
+      <c r="BP39" s="4">
+        <v>85</v>
+      </c>
+      <c r="BQ39" s="4">
+        <v>85</v>
+      </c>
+      <c r="BR39" s="4">
+        <v>82</v>
+      </c>
+      <c r="BS39" s="4">
+        <v>82</v>
+      </c>
+      <c r="BT39" s="4">
+        <v>83</v>
+      </c>
+      <c r="BU39" s="9">
+        <v>2022</v>
+      </c>
+      <c r="BV39" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BW39" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:75" ht="12.5">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="4">
+        <v>82</v>
+      </c>
+      <c r="D40" s="4">
+        <v>82</v>
+      </c>
+      <c r="E40" s="4">
+        <v>81</v>
+      </c>
+      <c r="F40" s="4">
+        <v>73</v>
+      </c>
+      <c r="G40" s="4">
+        <v>77</v>
+      </c>
+      <c r="H40" s="4">
+        <v>76</v>
+      </c>
+      <c r="I40" s="4">
+        <v>78</v>
+      </c>
+      <c r="J40" s="4">
+        <v>75</v>
+      </c>
+      <c r="K40" s="4">
+        <v>77</v>
+      </c>
+      <c r="L40" s="4">
+        <v>73</v>
+      </c>
+      <c r="M40" s="4">
+        <v>77</v>
+      </c>
+      <c r="N40" s="4">
+        <v>75</v>
+      </c>
+      <c r="O40" s="4">
+        <v>75</v>
+      </c>
+      <c r="P40" s="4">
+        <v>78</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>85</v>
+      </c>
+      <c r="R40" s="4">
+        <v>82</v>
+      </c>
+      <c r="S40" s="4">
+        <v>82</v>
+      </c>
+      <c r="T40" s="4">
+        <v>74</v>
+      </c>
+      <c r="U40" s="4">
+        <v>82</v>
+      </c>
+      <c r="V40" s="4">
+        <v>76</v>
+      </c>
+      <c r="W40" s="4">
+        <v>77</v>
+      </c>
+      <c r="X40" s="4">
+        <v>76</v>
+      </c>
+      <c r="Y40" s="4">
+        <v>77</v>
+      </c>
+      <c r="Z40" s="4">
+        <v>74</v>
+      </c>
+      <c r="AA40" s="4">
+        <v>77</v>
+      </c>
+      <c r="AB40" s="4">
+        <v>76</v>
+      </c>
+      <c r="AC40" s="4">
+        <v>77</v>
+      </c>
+      <c r="AD40" s="4">
+        <v>78</v>
+      </c>
+      <c r="AE40" s="4">
+        <v>86</v>
+      </c>
+      <c r="AF40" s="4">
+        <v>83</v>
+      </c>
+      <c r="AG40" s="4">
+        <v>85</v>
+      </c>
+      <c r="AH40" s="4">
+        <v>78</v>
+      </c>
+      <c r="AI40" s="4">
+        <v>84</v>
+      </c>
+      <c r="AJ40" s="4">
+        <v>80</v>
+      </c>
+      <c r="AK40" s="4">
+        <v>82</v>
+      </c>
+      <c r="AL40" s="4">
+        <v>83</v>
+      </c>
+      <c r="AM40" s="4">
+        <v>81</v>
+      </c>
+      <c r="AN40" s="4">
+        <v>79</v>
+      </c>
+      <c r="AO40" s="4">
+        <v>80</v>
+      </c>
+      <c r="AP40" s="4">
+        <v>79</v>
+      </c>
+      <c r="AQ40" s="4">
+        <v>79</v>
+      </c>
+      <c r="AR40" s="4">
+        <v>80</v>
+      </c>
+      <c r="AS40" s="4">
+        <v>88</v>
+      </c>
+      <c r="AT40" s="4">
+        <v>86</v>
+      </c>
+      <c r="AU40" s="4">
+        <v>88</v>
+      </c>
+      <c r="AV40" s="4">
+        <v>80</v>
+      </c>
+      <c r="AW40" s="4">
+        <v>84</v>
+      </c>
+      <c r="AX40" s="4">
+        <v>83</v>
+      </c>
+      <c r="AY40" s="4">
+        <v>84</v>
+      </c>
+      <c r="AZ40" s="4">
+        <v>87</v>
+      </c>
+      <c r="BA40" s="4">
+        <v>83</v>
+      </c>
+      <c r="BB40" s="4">
+        <v>82</v>
+      </c>
+      <c r="BC40" s="4">
+        <v>81</v>
+      </c>
+      <c r="BD40" s="4">
+        <v>81</v>
+      </c>
+      <c r="BE40" s="4">
+        <v>80</v>
+      </c>
+      <c r="BF40" s="4">
+        <v>83</v>
+      </c>
+      <c r="BG40" s="4">
+        <v>90</v>
+      </c>
+      <c r="BH40" s="4">
+        <v>86</v>
+      </c>
+      <c r="BI40" s="4">
+        <v>89</v>
+      </c>
+      <c r="BJ40" s="4">
+        <v>85</v>
+      </c>
+      <c r="BK40" s="4">
+        <v>86</v>
+      </c>
+      <c r="BL40" s="4">
+        <v>92</v>
+      </c>
+      <c r="BM40" s="4">
+        <v>86</v>
+      </c>
+      <c r="BN40" s="4">
+        <v>87</v>
+      </c>
+      <c r="BO40" s="4">
+        <v>84</v>
+      </c>
+      <c r="BP40" s="4">
+        <v>85</v>
+      </c>
+      <c r="BQ40" s="4">
+        <v>84</v>
+      </c>
+      <c r="BR40" s="4">
+        <v>82</v>
+      </c>
+      <c r="BS40" s="4">
+        <v>81</v>
+      </c>
+      <c r="BT40" s="4">
+        <v>84</v>
+      </c>
+      <c r="BU40" s="9">
+        <v>2022</v>
+      </c>
+      <c r="BV40" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="BW40" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:75" ht="12.5">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="4">
+        <v>82</v>
+      </c>
+      <c r="D41" s="4">
+        <v>82</v>
+      </c>
+      <c r="E41" s="4">
+        <v>81</v>
+      </c>
+      <c r="F41" s="4">
+        <v>73</v>
+      </c>
+      <c r="G41" s="4">
+        <v>77</v>
+      </c>
+      <c r="H41" s="4">
+        <v>75</v>
+      </c>
+      <c r="I41" s="4">
+        <v>75</v>
+      </c>
+      <c r="J41" s="4">
+        <v>75</v>
+      </c>
+      <c r="K41" s="4">
+        <v>76</v>
+      </c>
+      <c r="L41" s="4">
+        <v>73</v>
+      </c>
+      <c r="M41" s="4">
+        <v>77</v>
+      </c>
+      <c r="N41" s="4">
+        <v>75</v>
+      </c>
+      <c r="O41" s="4">
+        <v>75</v>
+      </c>
+      <c r="P41" s="4">
+        <v>77</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>85</v>
+      </c>
+      <c r="R41" s="4">
+        <v>82</v>
+      </c>
+      <c r="S41" s="4">
+        <v>82</v>
+      </c>
+      <c r="T41" s="4">
+        <v>74</v>
+      </c>
+      <c r="U41" s="4">
+        <v>82</v>
+      </c>
+      <c r="V41" s="4">
+        <v>76</v>
+      </c>
+      <c r="W41" s="4">
+        <v>77</v>
+      </c>
+      <c r="X41" s="4">
+        <v>77</v>
+      </c>
+      <c r="Y41" s="4">
+        <v>77</v>
+      </c>
+      <c r="Z41" s="4">
+        <v>74</v>
+      </c>
+      <c r="AA41" s="4">
+        <v>78</v>
+      </c>
+      <c r="AB41" s="4">
+        <v>76</v>
+      </c>
+      <c r="AC41" s="4">
+        <v>78</v>
+      </c>
+      <c r="AD41" s="4">
+        <v>77</v>
+      </c>
+      <c r="AE41" s="4">
+        <v>85</v>
+      </c>
+      <c r="AF41" s="4">
+        <v>83</v>
+      </c>
+      <c r="AG41" s="4">
+        <v>85</v>
+      </c>
+      <c r="AH41" s="4">
+        <v>78</v>
+      </c>
+      <c r="AI41" s="4">
+        <v>84</v>
+      </c>
+      <c r="AJ41" s="4">
+        <v>80</v>
+      </c>
+      <c r="AK41" s="4">
+        <v>82</v>
+      </c>
+      <c r="AL41" s="4">
+        <v>83</v>
+      </c>
+      <c r="AM41" s="4">
+        <v>81</v>
+      </c>
+      <c r="AN41" s="4">
+        <v>79</v>
+      </c>
+      <c r="AO41" s="4">
+        <v>81</v>
+      </c>
+      <c r="AP41" s="4">
+        <v>78</v>
+      </c>
+      <c r="AQ41" s="4">
+        <v>79</v>
+      </c>
+      <c r="AR41" s="4">
+        <v>80</v>
+      </c>
+      <c r="AS41" s="4">
+        <v>88</v>
+      </c>
+      <c r="AT41" s="4">
+        <v>86</v>
+      </c>
+      <c r="AU41" s="4">
+        <v>88</v>
+      </c>
+      <c r="AV41" s="4">
+        <v>80</v>
+      </c>
+      <c r="AW41" s="4">
+        <v>84</v>
+      </c>
+      <c r="AX41" s="4">
+        <v>83</v>
+      </c>
+      <c r="AY41" s="4">
+        <v>84</v>
+      </c>
+      <c r="AZ41" s="4">
+        <v>87</v>
+      </c>
+      <c r="BA41" s="4">
+        <v>83</v>
+      </c>
+      <c r="BB41" s="4">
+        <v>82</v>
+      </c>
+      <c r="BC41" s="4">
+        <v>83</v>
+      </c>
+      <c r="BD41" s="4">
+        <v>81</v>
+      </c>
+      <c r="BE41" s="4">
+        <v>81</v>
+      </c>
+      <c r="BF41" s="4">
+        <v>82</v>
+      </c>
+      <c r="BG41" s="4">
+        <v>90</v>
+      </c>
+      <c r="BH41" s="4">
+        <v>85</v>
+      </c>
+      <c r="BI41" s="4">
+        <v>89</v>
+      </c>
+      <c r="BJ41" s="4">
+        <v>85</v>
+      </c>
+      <c r="BK41" s="4">
+        <v>86</v>
+      </c>
+      <c r="BL41" s="4">
+        <v>92</v>
+      </c>
+      <c r="BM41" s="4">
+        <v>85</v>
+      </c>
+      <c r="BN41" s="4">
+        <v>89</v>
+      </c>
+      <c r="BO41" s="4">
+        <v>85</v>
+      </c>
+      <c r="BP41" s="4">
+        <v>85</v>
+      </c>
+      <c r="BQ41" s="4">
+        <v>85</v>
+      </c>
+      <c r="BR41" s="4">
+        <v>82</v>
+      </c>
+      <c r="BS41" s="4">
+        <v>82</v>
+      </c>
+      <c r="BT41" s="4">
+        <v>83</v>
+      </c>
+      <c r="BU41" s="9">
+        <v>2020</v>
+      </c>
+      <c r="BV41" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW41" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:75" ht="13" customHeight="1">
+      <c r="B42" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="4">
+        <v>82</v>
+      </c>
+      <c r="D42" s="4">
+        <v>82</v>
+      </c>
+      <c r="E42" s="4">
+        <v>82</v>
+      </c>
+      <c r="F42" s="4">
+        <v>72</v>
+      </c>
+      <c r="G42" s="4">
+        <v>77</v>
+      </c>
+      <c r="H42" s="4">
+        <v>75</v>
+      </c>
+      <c r="I42" s="4">
+        <v>76</v>
+      </c>
+      <c r="J42" s="4">
+        <v>74</v>
+      </c>
+      <c r="K42" s="4">
+        <v>76</v>
+      </c>
+      <c r="L42" s="4">
+        <v>72</v>
+      </c>
+      <c r="M42" s="4">
+        <v>76</v>
+      </c>
+      <c r="N42" s="4">
+        <v>75</v>
+      </c>
+      <c r="O42" s="4">
+        <v>76</v>
+      </c>
+      <c r="P42" s="4">
+        <v>76</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>85</v>
+      </c>
+      <c r="R42" s="4">
+        <v>83</v>
+      </c>
+      <c r="S42" s="4">
+        <v>83</v>
+      </c>
+      <c r="T42" s="4">
+        <v>72</v>
+      </c>
+      <c r="U42" s="4">
+        <v>83</v>
+      </c>
+      <c r="V42" s="4">
+        <v>76</v>
+      </c>
+      <c r="W42" s="4">
+        <v>77</v>
+      </c>
+      <c r="X42" s="4">
+        <v>76</v>
+      </c>
+      <c r="Y42" s="4">
+        <v>77</v>
+      </c>
+      <c r="Z42" s="4">
+        <v>74</v>
+      </c>
+      <c r="AA42" s="4">
+        <v>77</v>
+      </c>
+      <c r="AB42" s="4">
+        <v>77</v>
+      </c>
+      <c r="AC42" s="4">
+        <v>76</v>
+      </c>
+      <c r="AD42" s="4">
+        <v>77</v>
+      </c>
+      <c r="AE42" s="4">
+        <v>85</v>
+      </c>
+      <c r="AF42" s="4">
+        <v>84</v>
+      </c>
+      <c r="AG42" s="4">
+        <v>86</v>
+      </c>
+      <c r="AH42" s="4">
+        <v>76</v>
+      </c>
+      <c r="AI42" s="4">
+        <v>85</v>
+      </c>
+      <c r="AJ42" s="4">
+        <v>80</v>
+      </c>
+      <c r="AK42" s="4">
+        <v>83</v>
+      </c>
+      <c r="AL42" s="4">
+        <v>85</v>
+      </c>
+      <c r="AM42" s="4">
+        <v>81</v>
+      </c>
+      <c r="AN42" s="4">
+        <v>78</v>
+      </c>
+      <c r="AO42" s="4">
+        <v>80</v>
+      </c>
+      <c r="AP42" s="4">
+        <v>79</v>
+      </c>
+      <c r="AQ42" s="4">
+        <v>79</v>
+      </c>
+      <c r="AR42" s="4">
+        <v>80</v>
+      </c>
+      <c r="AS42" s="4">
+        <v>88</v>
+      </c>
+      <c r="AT42" s="4">
+        <v>87</v>
+      </c>
+      <c r="AU42" s="4">
+        <v>88</v>
+      </c>
+      <c r="AV42" s="4">
+        <v>80</v>
+      </c>
+      <c r="AW42" s="4">
+        <v>85</v>
+      </c>
+      <c r="AX42" s="4">
+        <v>83</v>
+      </c>
+      <c r="AY42" s="4">
+        <v>85</v>
+      </c>
+      <c r="AZ42" s="4">
+        <v>87</v>
+      </c>
+      <c r="BA42" s="4">
+        <v>83</v>
+      </c>
+      <c r="BB42" s="4">
+        <v>80</v>
+      </c>
+      <c r="BC42" s="4">
+        <v>82</v>
+      </c>
+      <c r="BD42" s="4">
+        <v>81</v>
+      </c>
+      <c r="BE42" s="4">
+        <v>81</v>
+      </c>
+      <c r="BF42" s="4">
+        <v>83</v>
+      </c>
+      <c r="BG42" s="4">
+        <v>90</v>
+      </c>
+      <c r="BH42" s="4">
+        <v>86</v>
+      </c>
+      <c r="BI42" s="4">
+        <v>89</v>
+      </c>
+      <c r="BJ42" s="4">
+        <v>83</v>
+      </c>
+      <c r="BK42" s="4">
+        <v>86</v>
+      </c>
+      <c r="BL42" s="4">
+        <v>92</v>
+      </c>
+      <c r="BM42" s="4">
+        <v>86</v>
+      </c>
+      <c r="BN42" s="4">
+        <v>89</v>
+      </c>
+      <c r="BO42" s="4">
+        <v>85</v>
+      </c>
+      <c r="BP42" s="4">
+        <v>84</v>
+      </c>
+      <c r="BQ42" s="4">
+        <v>84</v>
+      </c>
+      <c r="BR42" s="4">
+        <v>82</v>
+      </c>
+      <c r="BS42" s="4">
+        <v>81</v>
+      </c>
+      <c r="BT42" s="4">
+        <v>84</v>
+      </c>
+      <c r="BU42" s="13">
+        <v>2020</v>
+      </c>
+      <c r="BV42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW42" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:75" ht="13" customHeight="1">
+      <c r="B43" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="4">
+        <v>82</v>
+      </c>
+      <c r="D43" s="4">
+        <v>80</v>
+      </c>
+      <c r="E43" s="4">
+        <v>82</v>
+      </c>
+      <c r="F43" s="4">
+        <v>72</v>
+      </c>
+      <c r="G43" s="4">
+        <v>77</v>
+      </c>
+      <c r="H43" s="4">
+        <v>76</v>
+      </c>
+      <c r="I43" s="4">
+        <v>76</v>
+      </c>
+      <c r="J43" s="4">
+        <v>75</v>
+      </c>
+      <c r="K43" s="4">
+        <v>76</v>
+      </c>
+      <c r="L43" s="4">
+        <v>73</v>
+      </c>
+      <c r="M43" s="4">
+        <v>76</v>
+      </c>
+      <c r="N43" s="4">
+        <v>76</v>
+      </c>
+      <c r="O43" s="4">
+        <v>74</v>
+      </c>
+      <c r="P43" s="4">
+        <v>76</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>83</v>
+      </c>
+      <c r="R43" s="4">
+        <v>81</v>
+      </c>
+      <c r="S43" s="4">
+        <v>82</v>
+      </c>
+      <c r="T43" s="4">
+        <v>74</v>
+      </c>
+      <c r="U43" s="4">
+        <v>83</v>
+      </c>
+      <c r="V43" s="4">
+        <v>77</v>
+      </c>
+      <c r="W43" s="4">
+        <v>79</v>
+      </c>
+      <c r="X43" s="4">
+        <v>78</v>
+      </c>
+      <c r="Y43" s="4">
+        <v>77</v>
+      </c>
+      <c r="Z43" s="4">
+        <v>74</v>
+      </c>
+      <c r="AA43" s="4">
+        <v>77</v>
+      </c>
+      <c r="AB43" s="4">
+        <v>76</v>
+      </c>
+      <c r="AC43" s="4">
+        <v>76</v>
+      </c>
+      <c r="AD43" s="4">
+        <v>77</v>
+      </c>
+      <c r="AE43" s="4">
+        <v>84</v>
+      </c>
+      <c r="AF43" s="4">
+        <v>83</v>
+      </c>
+      <c r="AG43" s="4">
+        <v>86</v>
+      </c>
+      <c r="AH43" s="4">
+        <v>78</v>
+      </c>
+      <c r="AI43" s="4">
+        <v>85</v>
+      </c>
+      <c r="AJ43" s="4">
+        <v>79</v>
+      </c>
+      <c r="AK43" s="4">
+        <v>83</v>
+      </c>
+      <c r="AL43" s="4">
+        <v>83</v>
+      </c>
+      <c r="AM43" s="4">
+        <v>80</v>
+      </c>
+      <c r="AN43" s="4">
+        <v>79</v>
+      </c>
+      <c r="AO43" s="4">
+        <v>80</v>
+      </c>
+      <c r="AP43" s="4">
+        <v>78</v>
+      </c>
+      <c r="AQ43" s="4">
+        <v>78</v>
+      </c>
+      <c r="AR43" s="4">
+        <v>79</v>
+      </c>
+      <c r="AS43" s="4">
+        <v>86</v>
+      </c>
+      <c r="AT43" s="4">
+        <v>86</v>
+      </c>
+      <c r="AU43" s="4">
+        <v>88</v>
+      </c>
+      <c r="AV43" s="4">
+        <v>80</v>
+      </c>
+      <c r="AW43" s="4">
+        <v>86</v>
+      </c>
+      <c r="AX43" s="4">
+        <v>82</v>
+      </c>
+      <c r="AY43" s="4">
+        <v>85</v>
+      </c>
+      <c r="AZ43" s="4">
+        <v>85</v>
+      </c>
+      <c r="BA43" s="4">
+        <v>82</v>
+      </c>
+      <c r="BB43" s="4">
+        <v>81</v>
+      </c>
+      <c r="BC43" s="4">
+        <v>81</v>
+      </c>
+      <c r="BD43" s="4">
+        <v>80</v>
+      </c>
+      <c r="BE43" s="4">
+        <v>80</v>
+      </c>
+      <c r="BF43" s="4">
+        <v>82</v>
+      </c>
+      <c r="BG43" s="4">
+        <v>90</v>
+      </c>
+      <c r="BH43" s="4">
+        <v>85</v>
+      </c>
+      <c r="BI43" s="4">
+        <v>89</v>
+      </c>
+      <c r="BJ43" s="4">
+        <v>83</v>
+      </c>
+      <c r="BK43" s="4">
+        <v>86</v>
+      </c>
+      <c r="BL43" s="4">
+        <v>90</v>
+      </c>
+      <c r="BM43" s="4">
+        <v>86</v>
+      </c>
+      <c r="BN43" s="4">
+        <v>87</v>
+      </c>
+      <c r="BO43" s="4">
+        <v>84</v>
+      </c>
+      <c r="BP43" s="4">
+        <v>84</v>
+      </c>
+      <c r="BQ43" s="4">
+        <v>84</v>
+      </c>
+      <c r="BR43" s="4">
+        <v>82</v>
+      </c>
+      <c r="BS43" s="4">
+        <v>81</v>
+      </c>
+      <c r="BT43" s="4">
+        <v>84</v>
+      </c>
+      <c r="BU43" s="13">
+        <v>2020</v>
+      </c>
+      <c r="BV43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BW43" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:75" ht="13" customHeight="1">
+      <c r="B44" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="4">
+        <v>82</v>
+      </c>
+      <c r="D44" s="4">
+        <v>82</v>
+      </c>
+      <c r="E44" s="4">
+        <v>81</v>
+      </c>
+      <c r="F44" s="4">
+        <v>73</v>
+      </c>
+      <c r="G44" s="4">
+        <v>77</v>
+      </c>
+      <c r="H44" s="4">
+        <v>75</v>
+      </c>
+      <c r="I44" s="4">
+        <v>75</v>
+      </c>
+      <c r="J44" s="4">
+        <v>75</v>
+      </c>
+      <c r="K44" s="4">
+        <v>77</v>
+      </c>
+      <c r="L44" s="4">
+        <v>72</v>
+      </c>
+      <c r="M44" s="4">
+        <v>77</v>
+      </c>
+      <c r="N44" s="4">
+        <v>75</v>
+      </c>
+      <c r="O44" s="4">
+        <v>75</v>
+      </c>
+      <c r="P44" s="4">
+        <v>78</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>85</v>
+      </c>
+      <c r="R44" s="4">
+        <v>82</v>
+      </c>
+      <c r="S44" s="4">
+        <v>82</v>
+      </c>
+      <c r="T44" s="4">
+        <v>74</v>
+      </c>
+      <c r="U44" s="4">
+        <v>82</v>
+      </c>
+      <c r="V44" s="4">
+        <v>76</v>
+      </c>
+      <c r="W44" s="4">
+        <v>77</v>
+      </c>
+      <c r="X44" s="4">
+        <v>76</v>
+      </c>
+      <c r="Y44" s="4">
+        <v>77</v>
+      </c>
+      <c r="Z44" s="4">
+        <v>74</v>
+      </c>
+      <c r="AA44" s="4">
+        <v>77</v>
+      </c>
+      <c r="AB44" s="4">
+        <v>76</v>
+      </c>
+      <c r="AC44" s="4">
+        <v>77</v>
+      </c>
+      <c r="AD44" s="4">
+        <v>78</v>
+      </c>
+      <c r="AE44" s="4">
+        <v>86</v>
+      </c>
+      <c r="AF44" s="4">
+        <v>83</v>
+      </c>
+      <c r="AG44" s="4">
+        <v>85</v>
+      </c>
+      <c r="AH44" s="4">
+        <v>78</v>
+      </c>
+      <c r="AI44" s="4">
+        <v>84</v>
+      </c>
+      <c r="AJ44" s="4">
+        <v>80</v>
+      </c>
+      <c r="AK44" s="4">
+        <v>82</v>
+      </c>
+      <c r="AL44" s="4">
+        <v>83</v>
+      </c>
+      <c r="AM44" s="4">
+        <v>81</v>
+      </c>
+      <c r="AN44" s="4">
+        <v>79</v>
+      </c>
+      <c r="AO44" s="4">
+        <v>80</v>
+      </c>
+      <c r="AP44" s="4">
+        <v>79</v>
+      </c>
+      <c r="AQ44" s="4">
+        <v>79</v>
+      </c>
+      <c r="AR44" s="4">
+        <v>79</v>
+      </c>
+      <c r="AS44" s="4">
+        <v>88</v>
+      </c>
+      <c r="AT44" s="4">
+        <v>86</v>
+      </c>
+      <c r="AU44" s="4">
+        <v>88</v>
+      </c>
+      <c r="AV44" s="4">
+        <v>80</v>
+      </c>
+      <c r="AW44" s="4">
+        <v>84</v>
+      </c>
+      <c r="AX44" s="4">
+        <v>83</v>
+      </c>
+      <c r="AY44" s="4">
+        <v>84</v>
+      </c>
+      <c r="AZ44" s="4">
+        <v>87</v>
+      </c>
+      <c r="BA44" s="4">
+        <v>83</v>
+      </c>
+      <c r="BB44" s="4">
+        <v>82</v>
+      </c>
+      <c r="BC44" s="4">
+        <v>81</v>
+      </c>
+      <c r="BD44" s="4">
+        <v>81</v>
+      </c>
+      <c r="BE44" s="4">
+        <v>80</v>
+      </c>
+      <c r="BF44" s="4">
+        <v>83</v>
+      </c>
+      <c r="BG44" s="4">
+        <v>90</v>
+      </c>
+      <c r="BH44" s="4">
+        <v>86</v>
+      </c>
+      <c r="BI44" s="4">
+        <v>89</v>
+      </c>
+      <c r="BJ44" s="4">
+        <v>85</v>
+      </c>
+      <c r="BK44" s="4">
+        <v>86</v>
+      </c>
+      <c r="BL44" s="4">
+        <v>92</v>
+      </c>
+      <c r="BM44" s="4">
+        <v>86</v>
+      </c>
+      <c r="BN44" s="4">
+        <v>87</v>
+      </c>
+      <c r="BO44" s="4">
+        <v>84</v>
+      </c>
+      <c r="BP44" s="4">
+        <v>85</v>
+      </c>
+      <c r="BQ44" s="4">
+        <v>84</v>
+      </c>
+      <c r="BR44" s="4">
+        <v>82</v>
+      </c>
+      <c r="BS44" s="4">
+        <v>81</v>
+      </c>
+      <c r="BT44" s="4">
+        <v>84</v>
+      </c>
+      <c r="BU44" s="13">
+        <v>2020</v>
+      </c>
+      <c r="BV44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW44" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
